--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value583.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value583.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.028299132721495</v>
+        <v>1.10681414604187</v>
       </c>
       <c r="B1">
-        <v>1.741262883619168</v>
+        <v>1.942057013511658</v>
       </c>
       <c r="C1">
-        <v>1.973966441725417</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.205809132841967</v>
+        <v>2.040972709655762</v>
       </c>
       <c r="E1">
-        <v>2.015285562220135</v>
+        <v>1.115364909172058</v>
       </c>
     </row>
   </sheetData>
